--- a/src/test/data/convert_template.xlsx
+++ b/src/test/data/convert_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数値型" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
   <si>
     <t>数値型のテスト</t>
     <rPh sb="0" eb="2">
@@ -502,6 +502,17 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Calendarクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v1.0追加</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1155,31 +1166,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="5" width="26.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="26.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="2" customWidth="1"/>
+    <col min="4" max="6" width="26.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C5" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -1187,32 +1203,39 @@
         <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C10" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
@@ -1220,25 +1243,29 @@
         <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1629,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/test/data/convert_template.xlsx
+++ b/src/test/data/convert_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="数値型" sheetId="1" r:id="rId1"/>
@@ -965,7 +965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1168,7 +1168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/src/test/data/convert_template.xlsx
+++ b/src/test/data/convert_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="数値型" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
   <si>
     <t>数値型のテスト</t>
     <rPh sb="0" eb="2">
@@ -513,6 +513,44 @@
     <t>v1.0追加</t>
     <rPh sb="4" eb="6">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスト型（任意の型）</t>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List（Date型）</t>
+    <rPh sb="9" eb="10">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Array（Date型）</t>
+    <rPh sb="10" eb="11">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Set（Date型）</t>
+    <rPh sb="8" eb="9">
+      <t>カタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -965,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1367,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1473,6 +1511,35 @@
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/test/data/convert_template.xlsx
+++ b/src/test/data/convert_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="数値型" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="113">
   <si>
     <t>数値型のテスト</t>
     <rPh sb="0" eb="2">
@@ -552,6 +552,230 @@
     <rPh sb="8" eb="9">
       <t>カタ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブール型（数式）</t>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boolean型</t>
+    <rPh sb="7" eb="8">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列型（数式）</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数式指定</t>
+    <rPh sb="0" eb="2">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Byteクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shortクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Integerクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Longクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Floatクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Doubleクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BigDecimalクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BigIntegerクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日時型（数式）</t>
+    <rPh sb="0" eb="2">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ver1.5追加。</t>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dateクラス(util)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Calendarクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dateクラス(sql)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Timeクラス(sql)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Timesamp(sql)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始日時</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了日時</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enum型（英字）1</t>
+    <rPh sb="4" eb="5">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>エイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enum型（英字）2</t>
+    <rPh sb="4" eb="5">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>エイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列挙型（数式）</t>
+    <rPh sb="4" eb="6">
+      <t>スウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスト型（数式）</t>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List（数式）</t>
+    <rPh sb="5" eb="7">
+      <t>スウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Array（数式）</t>
+    <rPh sb="6" eb="8">
+      <t>スウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Set（数式）</t>
+    <rPh sb="4" eb="6">
+      <t>スウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク型（数式）</t>
+    <rPh sb="5" eb="7">
+      <t>スウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CellLink</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -559,8 +783,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="[DBNum3][$-411]0"/>
+    <numFmt numFmtId="177" formatCode="0;&quot;▲ &quot;0"/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d\ h:mm:ss;@"/>
+    <numFmt numFmtId="180" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -659,7 +886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -695,6 +922,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1001,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1154,13 +1386,13 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
@@ -1186,7 +1418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -1196,6 +1428,55 @@
       <c r="G21" s="10"/>
       <c r="H21" s="3"/>
     </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="11"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="10"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1204,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1217,15 +1498,16 @@
     <col min="3" max="3" width="26.75" style="2" customWidth="1"/>
     <col min="4" max="6" width="26.75" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="21.875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -1233,7 +1515,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -1256,7 +1538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1265,7 +1547,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1273,7 +1555,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
@@ -1296,7 +1578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1304,6 +1586,54 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1313,10 +1643,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1397,6 +1727,35 @@
       <c r="E11" s="14"/>
       <c r="F11" s="3"/>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1405,10 +1764,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1541,6 +1900,35 @@
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="18"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1549,10 +1937,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1635,6 +2023,37 @@
         <v>70</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1643,10 +2062,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1673,10 +2092,10 @@
         <v>51</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>13</v>
@@ -1713,18 +2132,44 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1789,6 +2234,31 @@
       <c r="C9" s="20"/>
       <c r="D9" s="15"/>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="18"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="25"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/data/convert_template.xlsx
+++ b/src/test/data/convert_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="数値型" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="ブール型" sheetId="5" r:id="rId5"/>
     <sheet name="列挙型" sheetId="7" r:id="rId6"/>
     <sheet name="リンク型" sheetId="6" r:id="rId7"/>
+    <sheet name="JSR310" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="118">
   <si>
     <t>数値型のテスト</t>
     <rPh sb="0" eb="2">
@@ -776,6 +777,29 @@
   </si>
   <si>
     <t>CellLink</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LocalDateTimeクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LocalDateクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LocalTimeクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java8から追加された、Date and Time APIのテスト。</t>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JSR-310のテスト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -786,8 +810,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="[DBNum3][$-411]0"/>
     <numFmt numFmtId="177" formatCode="0;&quot;▲ &quot;0"/>
-    <numFmt numFmtId="179" formatCode="yyyy/m/d\ h:mm:ss;@"/>
-    <numFmt numFmtId="180" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm:ss;@"/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -923,9 +947,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2168,7 +2192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:D13"/>
     </sheetView>
   </sheetViews>
@@ -2263,4 +2287,143 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/data/convert_template.xlsx
+++ b/src/test/data/convert_template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="数値型" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="列挙型" sheetId="7" r:id="rId6"/>
     <sheet name="リンク型" sheetId="6" r:id="rId7"/>
     <sheet name="JSR310" sheetId="8" r:id="rId8"/>
+    <sheet name="独自" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="121">
   <si>
     <t>数値型のテスト</t>
     <rPh sb="0" eb="2">
@@ -801,12 +802,32 @@
   <si>
     <t>JSR-310のテスト</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>独自のConverterのテスト</t>
+    <rPh sb="0" eb="2">
+      <t>ドクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>独自の書式1</t>
+    <rPh sb="0" eb="2">
+      <t>ドクジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>独自の書式2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="[DBNum3][$-411]0"/>
     <numFmt numFmtId="177" formatCode="0;&quot;▲ &quot;0"/>
@@ -910,7 +931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -951,6 +972,15 @@
     <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -966,12 +996,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1013,7 +1046,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1046,9 +1079,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1081,6 +1131,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2293,7 +2360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2426,4 +2493,42 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B4" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="27"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="28"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>